--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800832.7052804098</v>
+        <v>774396.1499704592</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5057114.216724705</v>
+        <v>5057114.216724706</v>
       </c>
     </row>
     <row r="11">
@@ -665,20 +665,20 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.54795914169615</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>53.6747228092714</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,73 +896,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="V5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="W5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.4197923396881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>53.6747228092714</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E9" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,73 +1370,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>31.1509994400877</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1856,16 +1856,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>124.9488863009592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.4073856875127</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>7.293797437979096</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2014,55 +2014,55 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>129.1308986796022</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>123.4585217040759</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,61 +2473,61 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>18.6605735692959</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.6787096659971</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>113.4538107927976</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,16 +2925,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>223.2654336072233</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,16 +3080,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3.54573294646922</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>56.6123511218909</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>109.4220735607106</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>21.18375537072436</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,19 +3588,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>109.7364879284881</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.76365405481586</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,40 +3673,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3977,7 +3977,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>19.20171008547518</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>105.3690580549764</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="C2" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="D2" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="E2" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="F2" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="G2" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="H2" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C2" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D2" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H2" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4337,13 +4337,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4361,19 +4361,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>645.6008794760112</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="C3" t="n">
-        <v>471.1478501948842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>322.2134405336329</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4410,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
         <v>435.9652341458732</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X3" t="n">
-        <v>720.9018483060073</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y3" t="n">
-        <v>720.9018483060073</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
         <v>16.44142755506243</v>
@@ -4571,16 +4571,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4598,19 +4598,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>518.0784727131665</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>518.0784727131665</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>518.0784727131665</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4647,13 +4647,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4671,25 +4671,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>686.2938097332346</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>686.2938097332346</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>686.2938097332346</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V6" t="n">
-        <v>686.2938097332346</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="W6" t="n">
-        <v>686.2938097332346</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="X6" t="n">
-        <v>686.2938097332346</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y6" t="n">
-        <v>686.2938097332346</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
         <v>16.44142755506243</v>
@@ -4814,40 +4814,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>614.4775954922324</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C9" t="n">
-        <v>614.4775954922324</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,13 +4890,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4920,13 +4920,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5048,10 +5048,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5075,16 +5075,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
         <v>16.44142755506243</v>
@@ -5136,34 +5136,34 @@
         <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5300,28 +5300,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
         <v>366.5706756325438</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I16" t="n">
         <v>133.2380658808762</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>601.5428246748836</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>601.5428246748836</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V17" t="n">
-        <v>601.5428246748836</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W17" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.5428246748836</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>433.7223438482202</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="C18" t="n">
-        <v>259.2693145670932</v>
+        <v>173.1831732429026</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>173.1831732429026</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>173.1831732429026</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>26.64861526978757</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V18" t="n">
-        <v>735.8335372470253</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W18" t="n">
-        <v>735.8335372470253</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X18" t="n">
-        <v>735.8335372470253</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y18" t="n">
-        <v>528.0732384820715</v>
+        <v>347.6362025240296</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5710,13 +5710,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>262.7299197543128</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>833.6219043191188</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>605.3982860555079</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>605.3982860555079</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5944,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6072,7 +6072,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
         <v>304.2053859195205</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>839.3515780317716</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>611.1279597681606</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>375.9758515364179</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>375.9758515364179</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>375.9758515364179</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>466.183833194304</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="C27" t="n">
-        <v>466.183833194304</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="D27" t="n">
-        <v>317.2494235330527</v>
+        <v>176.8610327390072</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>176.8610327390072</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>176.8610327390072</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>38.13020732162272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6318,10 +6318,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>842.159468979326</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>842.159468979326</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>842.159468979326</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>842.159468979326</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>842.159468979326</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>842.159468979326</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y27" t="n">
-        <v>634.399170214372</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X29" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="Y29" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>512.7568786610034</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C30" t="n">
-        <v>338.3038493798764</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D30" t="n">
-        <v>338.3038493798764</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E30" t="n">
-        <v>338.3038493798764</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F30" t="n">
-        <v>338.3038493798764</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,46 +6546,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>637.3669860562256</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>402.214877824483</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.7568786610034</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="31">
@@ -6719,22 +6719,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
         <v>262.7299197543128</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>22.86269154098972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>22.86269154098972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>182.1001465464452</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>752.3602790325011</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C36" t="n">
-        <v>577.9072497513741</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D36" t="n">
-        <v>577.9072497513741</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E36" t="n">
-        <v>418.6697947459187</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>752.3602790325011</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>752.3602790325011</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>752.3602790325011</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>752.3602790325011</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W36" t="n">
-        <v>752.3602790325011</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X36" t="n">
-        <v>752.3602790325011</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y36" t="n">
-        <v>752.3602790325011</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>40.6788758079141</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.0604900729671</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C39" t="n">
-        <v>279.0604900729671</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D39" t="n">
-        <v>130.1260804117159</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>189.9873030004272</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>189.9873030004272</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>76.61816740800653</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>655.0361258579891</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y39" t="n">
-        <v>447.2758270930352</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
         <v>224.0352098159517</v>
@@ -7415,46 +7415,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7491,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7518,22 +7518,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>599.8443290969091</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>599.8443290969091</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>392.2505468360198</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>392.2505468360198</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.6567645751305</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C44" t="n">
         <v>28.51141680214578</v>
@@ -7649,19 +7649,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7673,25 +7673,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T44" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U44" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W44" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X44" t="n">
-        <v>651.2927635848137</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.8288664974407</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7728,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.0442035175087</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="46">
@@ -7828,19 +7828,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7985,16 +7985,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,10 +8228,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8462,13 +8462,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,16 +8538,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,13 +8696,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8784,10 +8784,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10443,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,10 +11309,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,13 +11385,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22562,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.98522450817119</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>119.0337761790443</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22838,19 +22838,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="6">
@@ -22869,19 +22869,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22911,16 +22911,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>37.26337876414971</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>179.1258643401539</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -23021,16 +23021,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D8" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23072,7 +23072,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E9" t="n">
-        <v>50.38067216836671</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,10 +23258,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23434,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>384.1517380750474</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,10 +23540,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23671,7 +23671,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23744,16 +23744,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>290.3538512141759</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,22 +23777,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>340.0065027013012</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,31 +23808,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.12579796235464</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>130.0497197252315</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,25 +23859,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,13 +23975,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -24020,10 +24020,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>71.03383001521937</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24184,13 +24184,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>352.8864698128427</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,7 +24251,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24263,13 +24263,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24288,7 +24288,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>76.70620699074566</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,10 +24461,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,22 +24491,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>93.57487066720057</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24570,13 +24570,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>51.0044614378407</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24585,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,13 +24619,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,10 +24731,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>23.88970637041301</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,16 +24813,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>2.675948473751532</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,16 +24968,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -25002,13 +25002,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>133.7977842167414</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,10 +25117,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25169,7 +25169,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>116.0961478664248</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,19 +25281,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>62.26109754312725</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25394,7 +25394,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>333.4992862499586</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,19 +25476,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>47.90859252691284</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>32.63297879659922</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25631,13 +25631,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>183.6536234539904</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>225.855928360474</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,7 +25716,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>136.7575940004622</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>185.6777949634516</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
@@ -25865,7 +25865,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>189.8183595007702</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>350.5293905929939</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25947,7 +25947,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>124.3868919225031</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>100.313637722328</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426047.6612884081</v>
+        <v>426047.6612884082</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426047.6612884082</v>
+        <v>426047.6612884083</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448752.9057247415</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448752.9057247413</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247413</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448752.9057247415</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247413</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247415</v>
       </c>
     </row>
     <row r="15">
@@ -26332,7 +26332,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="I2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="J2" t="n">
         <v>149544.6052781992</v>
@@ -26347,13 +26347,13 @@
         <v>149544.6052781992</v>
       </c>
       <c r="N2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="O2" t="n">
         <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514383</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14040.57197001038</v>
+        <v>10953.43205138233</v>
       </c>
       <c r="C6" t="n">
-        <v>82914.32855170022</v>
+        <v>79827.1886330722</v>
       </c>
       <c r="D6" t="n">
-        <v>82914.32855170022</v>
+        <v>79827.18863307216</v>
       </c>
       <c r="E6" t="n">
-        <v>116541.9285517002</v>
+        <v>113454.7886330722</v>
       </c>
       <c r="F6" t="n">
-        <v>116541.9285517002</v>
+        <v>113454.7886330722</v>
       </c>
       <c r="G6" t="n">
-        <v>111501.0423408929</v>
+        <v>108247.2038992896</v>
       </c>
       <c r="H6" t="n">
-        <v>121230.0853150601</v>
+        <v>117976.2468734567</v>
       </c>
       <c r="I6" t="n">
-        <v>121230.08531506</v>
+        <v>117976.2468734566</v>
       </c>
       <c r="J6" t="n">
-        <v>67457.57442485061</v>
+        <v>64203.73598324723</v>
       </c>
       <c r="K6" t="n">
-        <v>121230.0853150601</v>
+        <v>117976.2468734567</v>
       </c>
       <c r="L6" t="n">
-        <v>121230.0853150601</v>
+        <v>117976.2468734567</v>
       </c>
       <c r="M6" t="n">
-        <v>121230.0853150601</v>
+        <v>117976.2468734567</v>
       </c>
       <c r="N6" t="n">
-        <v>121230.08531506</v>
+        <v>117976.2468734567</v>
       </c>
       <c r="O6" t="n">
-        <v>116541.9285517002</v>
+        <v>113454.7886330722</v>
       </c>
       <c r="P6" t="n">
-        <v>116541.9285517003</v>
+        <v>113454.7886330721</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34939,7 +34939,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,10 +34948,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35182,13 +35182,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35416,13 +35416,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M15" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37163,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,10 +38029,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,13 +38105,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>774396.1499704592</v>
+        <v>775180.2959084881</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5057114.216724706</v>
+        <v>5057114.216724705</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,58 +676,58 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.6747228092714</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>82.66126100643983</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,17 +1025,17 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
-        <v>53.6747228092714</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.29627918133474</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>33.57505181659871</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
@@ -1278,7 +1280,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,11 +1369,11 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>184.1592934053484</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1904,7 +1906,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>104.3704036188475</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7.293797437979096</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2132,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>230.2038249569697</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>129.1308986796022</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>70.73885857389301</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>182.7004482653351</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>131.7486919442746</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>18.6605735692959</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2731,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,64 +2791,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>113.4538107927976</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>223.2654336072233</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3114,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3.54573294646922</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>160.8964027017559</v>
       </c>
     </row>
     <row r="34">
@@ -3193,46 +3195,46 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3275,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56.6123511218909</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>20.02544070929549</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3594,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>56.76365405481586</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>87.39448298874188</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>205.5178444382804</v>
@@ -3752,7 +3754,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3974,14 +3976,14 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4028,7 +4030,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>19.20171008547518</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>47.29627918133471</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>25.22620338270559</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4331,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.6583192815992</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4410,16 +4412,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
         <v>639.4279001397708</v>
@@ -4443,16 +4445,16 @@
         <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>238.8736563016672</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="W3" t="n">
-        <v>238.8736563016672</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X3" t="n">
-        <v>238.8736563016672</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4507,31 +4509,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4577,10 +4579,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4598,19 +4600,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4647,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>184.6567645751305</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6567645751305</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
         <v>16.44142755506243</v>
@@ -4829,7 +4831,7 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T8" t="n">
         <v>604.3859801240053</v>
@@ -4844,10 +4846,10 @@
         <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C9" t="n">
-        <v>64.21544693014803</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4887,10 +4889,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
-      </c>
-      <c r="M9" t="n">
-        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
         <v>366.5706756325438</v>
@@ -4917,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>788.1571839989815</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>372.969619477203</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>165.3758372163137</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5042,19 +5044,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5072,16 +5074,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
         <v>224.0352098159517</v>
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,46 +5126,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>807.2329312674061</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5218,31 +5220,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,16 +5281,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
         <v>822.0713777531216</v>
@@ -5303,25 +5305,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5385,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
         <v>133.2380658808762</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>347.6362025240296</v>
+        <v>124.7057932302607</v>
       </c>
       <c r="C18" t="n">
-        <v>173.1831732429026</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>173.1831732429026</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>173.1831732429026</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>26.64861526978757</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>555.4877027295624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>555.4877027295624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X18" t="n">
-        <v>347.6362025240296</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y18" t="n">
-        <v>347.6362025240296</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
         <v>262.7299197543128</v>
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>833.6219043191188</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>605.3982860555079</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>605.3982860555079</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5946,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6072,40 +6074,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>892.6037630117544</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
         <v>227.0414418751666</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>325.7954424002585</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C27" t="n">
-        <v>325.7954424002585</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D27" t="n">
-        <v>176.8610327390072</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>176.8610327390072</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>176.8610327390072</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>38.13020732162272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X27" t="n">
-        <v>325.7954424002585</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y27" t="n">
-        <v>325.7954424002585</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>136.0777814360265</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.7661011803829</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C30" t="n">
-        <v>158.7661011803829</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D30" t="n">
-        <v>158.7661011803829</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E30" t="n">
-        <v>158.7661011803829</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>637.3669860562256</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>402.214877824483</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>158.7661011803829</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>158.7661011803829</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>158.7661011803829</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="31">
@@ -6719,28 +6721,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
         <v>19.28114311021272</v>
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>182.1001465464452</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C33" t="n">
-        <v>182.1001465464452</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D33" t="n">
-        <v>182.1001465464452</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E33" t="n">
-        <v>22.86269154098972</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F33" t="n">
-        <v>22.86269154098972</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6807,22 +6809,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>425.5489231905453</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>182.1001465464452</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>182.1001465464452</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y33" t="n">
-        <v>182.1001465464452</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>222.9998941357428</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8157010833278</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>391.2152311558108</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="C39" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D39" t="n">
-        <v>336.5218609735422</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E39" t="n">
-        <v>336.5218609735422</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>189.9873030004272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>189.9873030004272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>76.61816740800653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>774.6103705193382</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7412,7 +7414,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
         <v>265.9510956226784</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7497,10 +7499,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
         <v>570.0333416264414</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7652,46 +7654,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U44" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>774.2973583780361</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>774.2973583780361</v>
+        <v>522.0034902387918</v>
       </c>
       <c r="U45" t="n">
-        <v>566.7035761171468</v>
+        <v>522.0034902387918</v>
       </c>
       <c r="V45" t="n">
-        <v>566.7035761171468</v>
+        <v>522.0034902387918</v>
       </c>
       <c r="W45" t="n">
-        <v>566.7035761171468</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="X45" t="n">
-        <v>566.7035761171468</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>314.4097079779024</v>
       </c>
     </row>
     <row r="46">
@@ -7828,19 +7830,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7994,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2801117021122</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,7 +8072,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8225,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,7 +8774,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8784,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8939,7 +8941,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9018,7 +9020,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0431814381598</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11145,13 +11147,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11300,7 +11302,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>150.567170896597</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11388,10 +11390,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22562,10 +22564,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.0337761790443</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22683,7 +22685,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.992633756446</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22799,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22838,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748161</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22866,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>64.78380455819892</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22911,16 +22913,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>179.1258643401539</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23069,10 +23071,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117764</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>100.148786383304</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23157,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>199.2255353328266</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
@@ -23166,7 +23168,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23312,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.46777213178478</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>21.52340237195594</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23543,16 +23545,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,16 +23627,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>46.42735402472914</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>340.0065027013012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>68.33809536946828</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23820,10 +23822,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>130.0497197252315</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23859,13 +23861,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -24020,10 +24022,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>21.14182795086677</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>71.03383001521937</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24184,13 +24186,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>352.8864698128427</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>100.9443125299448</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>50.10013888409014</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24491,22 +24493,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>40.95980704404118</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24534,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>93.57487066720057</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24570,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24619,13 +24621,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24748,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>23.88970637041301</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>2.675948473751532</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25002,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>133.7977842167414</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>44.78629307554849</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25163,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>116.0961478664248</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,13 +25289,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25482,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>32.63297879659922</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>118.3785022147356</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25631,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>183.6536234539904</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>176.4125256339814</v>
@@ -25640,7 +25642,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>136.7575940004622</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>350.5293905929939</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>124.3868919225031</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>174.938525312116</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426047.6612884083</v>
+        <v>426047.6612884082</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426047.6612884082</v>
+        <v>426047.6612884083</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247413</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247413</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448752.9057247413</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247415</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448752.9057247413</v>
+        <v>448752.9057247415</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448752.9057247415</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="15">
@@ -26332,7 +26334,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="I2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="J2" t="n">
         <v>149544.6052781992</v>
@@ -26353,7 +26355,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
-        <v>141981.8776514383</v>
+        <v>141981.8776514385</v>
       </c>
     </row>
     <row r="3">
@@ -26522,10 +26524,10 @@
         <v>10953.43205138233</v>
       </c>
       <c r="C6" t="n">
-        <v>79827.1886330722</v>
+        <v>79827.18863307216</v>
       </c>
       <c r="D6" t="n">
-        <v>79827.18863307216</v>
+        <v>79827.18863307219</v>
       </c>
       <c r="E6" t="n">
         <v>113454.7886330722</v>
@@ -26540,10 +26542,10 @@
         <v>117976.2468734567</v>
       </c>
       <c r="I6" t="n">
-        <v>117976.2468734566</v>
+        <v>117976.2468734567</v>
       </c>
       <c r="J6" t="n">
-        <v>64203.73598324723</v>
+        <v>64203.73598324724</v>
       </c>
       <c r="K6" t="n">
         <v>117976.2468734567</v>
@@ -26561,7 +26563,7 @@
         <v>113454.7886330722</v>
       </c>
       <c r="P6" t="n">
-        <v>113454.7886330721</v>
+        <v>113454.7886330723</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,7 +34792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34945,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35504,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35659,7 +35661,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35738,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9091475161415</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37865,13 +37867,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38020,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.72573192223801</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38108,10 +38110,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>775180.2959084881</v>
+        <v>670947.7976450449</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5057114.216724705</v>
+        <v>5057114.216724706</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.15099944008764</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
@@ -800,13 +800,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,59 +895,59 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>82.66126100643983</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>68.03808181848311</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>33.57505181659871</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.1592934053484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>69.61051171713223</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>205.5178444382804</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>104.3704036188475</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>17.00014990438062</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2089,64 +2089,64 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>70.73885857389301</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>170.7457531160715</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2475,70 +2475,70 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,23 +2554,23 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>131.7486919442746</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>216.7902623649748</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>113.4538107927976</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>185.0891577121396</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>123.9809112256318</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>160.8964027017559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>20.02544070929549</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3438,55 +3438,55 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>87.39448298874188</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3675,55 +3675,55 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,70 +3745,70 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3872,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>25.22620338270559</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4333,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4354,7 +4354,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
         <v>639.2227743377304</v>
@@ -4369,13 +4369,13 @@
         <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,22 +4436,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>238.8736563016672</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>31.27987404077794</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4570,49 +4570,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.668476211275</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C6" t="n">
-        <v>238.668476211275</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="D6" t="n">
-        <v>155.1722529724469</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="E6" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4655,16 +4655,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4676,22 +4676,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V6" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.8838132313431</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T8" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U8" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3758372163137</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4895,13 +4895,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4916,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>788.1571839989815</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>580.5634017380922</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X9" t="n">
-        <v>372.969619477203</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.3758372163137</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E11" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="C11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5044,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y11" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="W11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5156,16 +5156,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5217,19 +5217,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
         <v>16.44142755506243</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U14" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>338.8550367639911</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>338.8550367639911</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>338.8550367639911</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
         <v>16.44142755506243</v>
@@ -5363,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M15" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M15" t="n">
-        <v>548.724319600695</v>
-      </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5381,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U15" t="n">
-        <v>412.2910008509983</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V15" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5469,19 +5469,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>124.7057932302607</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>500.6814290152826</v>
+        <v>672.2984129239073</v>
       </c>
       <c r="X18" t="n">
-        <v>500.6814290152826</v>
+        <v>672.2984129239073</v>
       </c>
       <c r="Y18" t="n">
-        <v>292.9211302503287</v>
+        <v>464.5381141589534</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
         <v>19.28114311021272</v>
@@ -5703,22 +5703,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="22">
@@ -5937,19 +5937,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -6019,10 +6019,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
         <v>506.1786963984129</v>
@@ -6071,40 +6071,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>892.6037630117544</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>690.4171683705204</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>462.1935501069094</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>227.0414418751666</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
         <v>227.0414418751666</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>315.6850394389064</v>
+      </c>
+      <c r="C26" t="n">
+        <v>315.6850394389064</v>
+      </c>
+      <c r="D26" t="n">
+        <v>315.6850394389064</v>
+      </c>
+      <c r="E26" t="n">
+        <v>315.6850394389064</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>414.6641751762832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
         <v>31.35113235729608</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V29" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W29" t="n">
         <v>761.6974622895962</v>
       </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="Y29" t="n">
         <v>518.2486856454962</v>
-      </c>
-      <c r="V29" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="W29" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="X29" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>512.7568786610034</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>338.3038493798764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.7568786610034</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6736,16 +6736,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>249.0657303232264</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X33" t="n">
-        <v>411.587349213889</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y33" t="n">
-        <v>249.0657303232264</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6882,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>688.4345967823949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,43 +7025,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>566.8500717543842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>566.8500717543842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>851.8101010141643</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>774.6103705193382</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>566.8500717543842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7414,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7456,7 +7456,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7520,16 +7520,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X42" t="n">
         <v>224.0352098159517</v>
@@ -7602,13 +7602,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
         <v>16.44142755506243</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7654,46 +7654,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>314.4097079779024</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>314.4097079779024</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>314.4097079779024</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>522.0034902387918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>522.0034902387918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>522.0034902387918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>314.4097079779024</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>314.4097079779024</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>314.4097079779024</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8072,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,16 +8543,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>174.6270615612551</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5148970497678</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10685,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>177.8690701461577</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22676,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
@@ -22688,13 +22688,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.992633756446</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22801,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>64.78380455819892</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>143.9803463190206</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>198.7016825117764</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>69.30543534472753</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>199.2255353328266</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23354,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.52340237195594</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>27.99995220500799</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>80.31623474114386</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>75.45870067625165</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>46.42735402472914</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>46.1771387226392</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>68.33809536946828</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>234.694833256539</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24016,7 +24016,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24025,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>100.9443125299448</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>80.94923004484809</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>306.5685030994106</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>40.95980704404118</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,10 +24581,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>16.01032478445043</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>23.88970637041301</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>20.68382749133787</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24976,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>108.8196759237934</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>44.78629307554849</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25210,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>127.4196248553433</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25292,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>132.3061701185453</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25475,19 +25475,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,16 +25526,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>118.3785022147356</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25760,19 +25760,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818786</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25952,13 +25952,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>174.938525312116</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>426047.661288408</v>
+        <v>426047.6612884082</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426047.6612884083</v>
+        <v>426047.6612884082</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448752.9057247413</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448752.9057247413</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247415</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448752.9057247415</v>
+        <v>448752.9057247416</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247415</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247413</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426047.6612884082</v>
+        <v>426047.6612884083</v>
       </c>
     </row>
     <row r="16">
@@ -26355,7 +26355,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10953.43205138233</v>
+        <v>-1684.730103478149</v>
       </c>
       <c r="C6" t="n">
-        <v>79827.18863307216</v>
+        <v>67189.02647821172</v>
       </c>
       <c r="D6" t="n">
-        <v>79827.18863307219</v>
+        <v>67189.02647821172</v>
       </c>
       <c r="E6" t="n">
-        <v>113454.7886330722</v>
+        <v>100816.6264782117</v>
       </c>
       <c r="F6" t="n">
-        <v>113454.7886330722</v>
+        <v>100816.6264782117</v>
       </c>
       <c r="G6" t="n">
-        <v>108247.2038992896</v>
+        <v>96029.19327924911</v>
       </c>
       <c r="H6" t="n">
-        <v>117976.2468734567</v>
+        <v>105758.2362534162</v>
       </c>
       <c r="I6" t="n">
-        <v>117976.2468734567</v>
+        <v>105758.2362534162</v>
       </c>
       <c r="J6" t="n">
-        <v>64203.73598324724</v>
+        <v>51985.72536320677</v>
       </c>
       <c r="K6" t="n">
-        <v>117976.2468734567</v>
+        <v>105758.2362534162</v>
       </c>
       <c r="L6" t="n">
-        <v>117976.2468734567</v>
+        <v>105758.2362534162</v>
       </c>
       <c r="M6" t="n">
-        <v>117976.2468734567</v>
+        <v>105758.2362534162</v>
       </c>
       <c r="N6" t="n">
-        <v>117976.2468734567</v>
+        <v>105758.2362534162</v>
       </c>
       <c r="O6" t="n">
-        <v>113454.7886330722</v>
+        <v>100816.6264782117</v>
       </c>
       <c r="P6" t="n">
-        <v>113454.7886330723</v>
+        <v>100816.6264782117</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35664,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35968,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>43.28534947792182</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>113.3808631277495</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
